--- a/www/IndicatorsPerCountry/Oman_CopperProduction_TerritorialRef_1971_2012_CCode_512.xlsx
+++ b/www/IndicatorsPerCountry/Oman_CopperProduction_TerritorialRef_1971_2012_CCode_512.xlsx
@@ -138,13 +138,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Oman_CopperProduction_TerritorialRef_1971_2012_CCode_512.xlsx
+++ b/www/IndicatorsPerCountry/Oman_CopperProduction_TerritorialRef_1971_2012_CCode_512.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="38">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,76 +39,58 @@
     <t>0</t>
   </si>
   <si>
-    <t>3.8</t>
+    <t>11.3</t>
   </si>
   <si>
-    <t>18.2</t>
+    <t>16.2</t>
   </si>
   <si>
-    <t>24</t>
+    <t>17.6</t>
   </si>
   <si>
-    <t>26</t>
+    <t>16.7</t>
   </si>
   <si>
-    <t>24.5</t>
+    <t>16.9</t>
   </si>
   <si>
-    <t>26.7</t>
+    <t>18.1</t>
   </si>
   <si>
-    <t>29</t>
+    <t>16.6</t>
   </si>
   <si>
-    <t>31</t>
+    <t>13.7</t>
   </si>
   <si>
-    <t>29.2</t>
+    <t>13.5</t>
   </si>
   <si>
-    <t>30.5</t>
+    <t>13.4</t>
   </si>
   <si>
-    <t>28.3</t>
+    <t>8.8</t>
   </si>
   <si>
-    <t>29.9</t>
+    <t>4.3</t>
   </si>
   <si>
-    <t>22</t>
+    <t>7.395</t>
   </si>
   <si>
-    <t>23.6</t>
+    <t>14.826</t>
   </si>
   <si>
-    <t>24.3</t>
+    <t>15.563</t>
   </si>
   <si>
-    <t>25.6</t>
+    <t>16.53</t>
   </si>
   <si>
-    <t>28.6</t>
+    <t>21.116</t>
   </si>
   <si>
-    <t>25.182</t>
-  </si>
-  <si>
-    <t>25.267</t>
-  </si>
-  <si>
-    <t>21.9</t>
-  </si>
-  <si>
-    <t>20.219</t>
-  </si>
-  <si>
-    <t>18.555</t>
-  </si>
-  <si>
-    <t>13.907</t>
-  </si>
-  <si>
-    <t>4.6</t>
+    <t>19.684</t>
   </si>
   <si>
     <t>Description</t>
@@ -4425,7 +4407,7 @@
         <v>1975.0</v>
       </c>
       <c r="E249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
@@ -4442,7 +4424,7 @@
         <v>1976.0</v>
       </c>
       <c r="E250" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251">
@@ -4459,7 +4441,7 @@
         <v>1977.0</v>
       </c>
       <c r="E251" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
@@ -4476,7 +4458,7 @@
         <v>1978.0</v>
       </c>
       <c r="E252" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253">
@@ -4493,7 +4475,7 @@
         <v>1979.0</v>
       </c>
       <c r="E253" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254">
@@ -4510,7 +4492,7 @@
         <v>1980.0</v>
       </c>
       <c r="E254" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255">
@@ -4527,7 +4509,7 @@
         <v>1981.0</v>
       </c>
       <c r="E255" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
@@ -4544,7 +4526,7 @@
         <v>1982.0</v>
       </c>
       <c r="E256" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
@@ -4561,7 +4543,7 @@
         <v>1983.0</v>
       </c>
       <c r="E257" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258">
@@ -4578,7 +4560,7 @@
         <v>1984.0</v>
       </c>
       <c r="E258" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259">
@@ -4595,7 +4577,7 @@
         <v>1985.0</v>
       </c>
       <c r="E259" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260">
@@ -4612,7 +4594,7 @@
         <v>1986.0</v>
       </c>
       <c r="E260" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261">
@@ -4629,7 +4611,7 @@
         <v>1987.0</v>
       </c>
       <c r="E261" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262">
@@ -4646,7 +4628,7 @@
         <v>1988.0</v>
       </c>
       <c r="E262" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263">
@@ -4663,7 +4645,7 @@
         <v>1989.0</v>
       </c>
       <c r="E263" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264">
@@ -4680,7 +4662,7 @@
         <v>1990.0</v>
       </c>
       <c r="E264" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="265">
@@ -4697,7 +4679,7 @@
         <v>1991.0</v>
       </c>
       <c r="E265" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266">
@@ -4714,7 +4696,7 @@
         <v>1992.0</v>
       </c>
       <c r="E266" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267">
@@ -4731,7 +4713,7 @@
         <v>1993.0</v>
       </c>
       <c r="E267" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268">
@@ -4748,7 +4730,7 @@
         <v>1994.0</v>
       </c>
       <c r="E268" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="269">
@@ -4765,7 +4747,7 @@
         <v>1995.0</v>
       </c>
       <c r="E269" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270">
@@ -4782,7 +4764,7 @@
         <v>1996.0</v>
       </c>
       <c r="E270" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271">
@@ -4799,7 +4781,7 @@
         <v>1997.0</v>
       </c>
       <c r="E271" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272">
@@ -4816,7 +4798,7 @@
         <v>1998.0</v>
       </c>
       <c r="E272" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273">
@@ -4833,7 +4815,7 @@
         <v>1999.0</v>
       </c>
       <c r="E273" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
@@ -4969,7 +4951,7 @@
         <v>2007.0</v>
       </c>
       <c r="E281" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282">
@@ -4986,7 +4968,7 @@
         <v>2008.0</v>
       </c>
       <c r="E282" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="283">
@@ -5003,7 +4985,7 @@
         <v>2009.0</v>
       </c>
       <c r="E283" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="284">
@@ -5020,7 +5002,7 @@
         <v>2010.0</v>
       </c>
       <c r="E284" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="285">
@@ -5037,7 +5019,7 @@
         <v>2011.0</v>
       </c>
       <c r="E285" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286">
@@ -5054,7 +5036,7 @@
         <v>2012.0</v>
       </c>
       <c r="E286" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5072,50 +5054,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
